--- a/outcome/appendix/data/Epidemic/Typhus.xlsx
+++ b/outcome/appendix/data/Epidemic/Typhus.xlsx
@@ -47,10 +47,10 @@
     <t xml:space="preserve">斑疹伤寒</t>
   </si>
   <si>
-    <t xml:space="preserve">Increase</t>
+    <t xml:space="preserve">Decrease</t>
   </si>
   <si>
-    <t xml:space="preserve">Decrease</t>
+    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>54.5405523248703</v>
+        <v>61.8179841699941</v>
       </c>
       <c r="C2" t="n">
-        <v>1.4397452210601</v>
+        <v>47.2514910448263</v>
       </c>
       <c r="D2" t="n">
-        <v>-18.1681494583672</v>
+        <v>39.5404553729013</v>
       </c>
       <c r="E2" t="n">
-        <v>97.3788402639918</v>
+        <v>76.3844772951619</v>
       </c>
       <c r="F2" t="n">
-        <v>117.604681665517</v>
+        <v>84.0955129670869</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>59</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.45944767512967</v>
+        <v>2.81798416999409</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>44.110665839869</v>
+        <v>57.5079083684223</v>
       </c>
       <c r="C3" t="n">
-        <v>-22.2938816064764</v>
+        <v>41.2985611810799</v>
       </c>
       <c r="D3" t="n">
-        <v>-43.318888529531</v>
+        <v>32.717851101709</v>
       </c>
       <c r="E3" t="n">
-        <v>91.0261493822397</v>
+        <v>73.7172555557647</v>
       </c>
       <c r="F3" t="n">
-        <v>110.746071948411</v>
+        <v>82.2979656351356</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,10 +480,10 @@
         <v>41</v>
       </c>
       <c r="I3" t="n">
-        <v>3.11066583986904</v>
+        <v>16.5079083684223</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>52.7541518777576</v>
+        <v>69.7457560935117</v>
       </c>
       <c r="C4" t="n">
-        <v>-20.6181133113321</v>
+        <v>47.2851827048864</v>
       </c>
       <c r="D4" t="n">
-        <v>-42.9600661226346</v>
+        <v>35.395273368209</v>
       </c>
       <c r="E4" t="n">
-        <v>93.8253131146969</v>
+        <v>92.206329482137</v>
       </c>
       <c r="F4" t="n">
-        <v>113.556652409161</v>
+        <v>104.096238818814</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,10 +512,10 @@
         <v>29</v>
       </c>
       <c r="I4" t="n">
-        <v>23.7541518777576</v>
+        <v>40.7457560935117</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -523,13 +523,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>61.3686930675055</v>
+        <v>82.3990769852405</v>
       </c>
       <c r="C5" t="n">
-        <v>-19.1099331507829</v>
+        <v>52.8836212253429</v>
       </c>
       <c r="D5" t="n">
-        <v>-42.1592233468326</v>
+        <v>37.2590827532478</v>
       </c>
       <c r="E5" t="n">
         <v>111.914532745138</v>
@@ -544,7 +544,7 @@
         <v>63</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.63130693249451</v>
+        <v>19.3990769852405</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,13 +555,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>95.4567914244639</v>
+        <v>119.948426759678</v>
       </c>
       <c r="C6" t="n">
-        <v>18.6562298510198</v>
+        <v>72.9910416205736</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.56930439845655</v>
+        <v>48.1333034706588</v>
       </c>
       <c r="E6" t="n">
         <v>166.905811898782</v>
@@ -576,10 +576,10 @@
         <v>67</v>
       </c>
       <c r="I6" t="n">
-        <v>28.4567914244639</v>
+        <v>52.948426759678</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>103.270514393968</v>
+        <v>123.585953413329</v>
       </c>
       <c r="C7" t="n">
-        <v>24.3191303807335</v>
+        <v>71.3635828942732</v>
       </c>
       <c r="D7" t="n">
-        <v>1.09353409583194</v>
+        <v>43.7187298411275</v>
       </c>
       <c r="E7" t="n">
         <v>175.808323932385</v>
@@ -608,7 +608,7 @@
         <v>113</v>
       </c>
       <c r="I7" t="n">
-        <v>-9.7294856060323</v>
+        <v>10.5859534133289</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,13 +619,13 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>114.670151866974</v>
+        <v>134.759812106208</v>
       </c>
       <c r="C8" t="n">
-        <v>38.7589128993971</v>
+        <v>73.8620274033158</v>
       </c>
       <c r="D8" t="n">
-        <v>15.443196078049</v>
+        <v>41.624687492458</v>
       </c>
       <c r="E8" t="n">
         <v>195.657596809099</v>
@@ -640,10 +640,10 @@
         <v>138</v>
       </c>
       <c r="I8" t="n">
-        <v>-23.3298481330262</v>
+        <v>-3.24018789379238</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -651,13 +651,13 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>129.042721533236</v>
+        <v>142.676466650449</v>
       </c>
       <c r="C9" t="n">
-        <v>56.1406219096129</v>
+        <v>74.2170082537497</v>
       </c>
       <c r="D9" t="n">
-        <v>32.6185207653756</v>
+        <v>37.9767600868434</v>
       </c>
       <c r="E9" t="n">
         <v>211.135925047149</v>
@@ -672,10 +672,10 @@
         <v>127</v>
       </c>
       <c r="I9" t="n">
-        <v>2.04272153323635</v>
+        <v>15.6764666504492</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -683,13 +683,13 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>127.208238254996</v>
+        <v>138.048222159291</v>
       </c>
       <c r="C10" t="n">
-        <v>50.9297709799732</v>
+        <v>68.1169561783843</v>
       </c>
       <c r="D10" t="n">
-        <v>27.2002505048498</v>
+        <v>31.0975801399644</v>
       </c>
       <c r="E10" t="n">
         <v>207.979488140198</v>
@@ -704,10 +704,10 @@
         <v>184</v>
       </c>
       <c r="I10" t="n">
-        <v>-56.7917617450043</v>
+        <v>-45.951777840709</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>159.177417278145</v>
+        <v>168.601681060027</v>
       </c>
       <c r="C11" t="n">
         <v>78.8506934626706</v>
@@ -736,10 +736,10 @@
         <v>192</v>
       </c>
       <c r="I11" t="n">
-        <v>-32.8225827218551</v>
+        <v>-23.3983189399732</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -747,13 +747,13 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>120.287406573636</v>
+        <v>117.682616628876</v>
       </c>
       <c r="C12" t="n">
-        <v>37.4755463347995</v>
+        <v>52.1065134129858</v>
       </c>
       <c r="D12" t="n">
-        <v>13.5977088712492</v>
+        <v>17.3926212785854</v>
       </c>
       <c r="E12" t="n">
         <v>183.258719844765</v>
@@ -768,10 +768,10 @@
         <v>131</v>
       </c>
       <c r="I12" t="n">
-        <v>-10.7125934263644</v>
+        <v>-13.3173833711245</v>
       </c>
       <c r="J12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>60.8579199009207</v>
+        <v>68.656016575114</v>
       </c>
       <c r="C13" t="n">
-        <v>-21.7007407139765</v>
+        <v>28.7398262970269</v>
       </c>
       <c r="D13" t="n">
-        <v>-45.5775670298465</v>
+        <v>7.60947155228261</v>
       </c>
       <c r="E13" t="n">
-        <v>115.998165586006</v>
+        <v>108.572206853201</v>
       </c>
       <c r="F13" t="n">
-        <v>134.426892223402</v>
+        <v>129.702561597945</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,10 +800,10 @@
         <v>55</v>
       </c>
       <c r="I13" t="n">
-        <v>5.85791990092075</v>
+        <v>13.656016575114</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>47.9638663019673</v>
+        <v>61.8211614402244</v>
       </c>
       <c r="C14" t="n">
-        <v>-38.9274350974469</v>
+        <v>24.4143541651091</v>
       </c>
       <c r="D14" t="n">
-        <v>-63.1933093961765</v>
+        <v>4.61238654032341</v>
       </c>
       <c r="E14" t="n">
-        <v>107.832270097253</v>
+        <v>99.2279687153396</v>
       </c>
       <c r="F14" t="n">
-        <v>128.971397049813</v>
+        <v>119.029936340125</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,10 +832,10 @@
         <v>45</v>
       </c>
       <c r="I14" t="n">
-        <v>2.96386630196727</v>
+        <v>16.8211614402244</v>
       </c>
       <c r="J14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>39.6403775255725</v>
+        <v>57.5108641128989</v>
       </c>
       <c r="C15" t="n">
-        <v>-52.9880410153753</v>
+        <v>21.3923040522318</v>
       </c>
       <c r="D15" t="n">
-        <v>-77.3977071423696</v>
+        <v>2.27229330886627</v>
       </c>
       <c r="E15" t="n">
-        <v>100.437535891186</v>
+        <v>93.629424173566</v>
       </c>
       <c r="F15" t="n">
-        <v>126.042783238883</v>
+        <v>112.749434916932</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,10 +864,10 @@
         <v>37</v>
       </c>
       <c r="I15" t="n">
-        <v>2.64037752557253</v>
+        <v>20.5108641128989</v>
       </c>
       <c r="J15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -875,13 +875,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>49.8018182142306</v>
+        <v>69.7493408288844</v>
       </c>
       <c r="C16" t="n">
-        <v>-40.9253602956363</v>
+        <v>24.3790350860143</v>
       </c>
       <c r="D16" t="n">
-        <v>-65.4799927490078</v>
+        <v>0.36144601888715</v>
       </c>
       <c r="E16" t="n">
         <v>115.119646571754</v>
@@ -896,10 +896,10 @@
         <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>14.8018182142306</v>
+        <v>34.7493408288844</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -907,13 +907,13 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>60.0122667876667</v>
+        <v>82.4033120656596</v>
       </c>
       <c r="C17" t="n">
-        <v>-31.4091768721126</v>
+        <v>26.989201556555</v>
       </c>
       <c r="D17" t="n">
-        <v>-56.0466990021194</v>
+        <v>-2.34525658597589</v>
       </c>
       <c r="E17" t="n">
         <v>137.817422574764</v>
@@ -928,10 +928,10 @@
         <v>105</v>
       </c>
       <c r="I17" t="n">
-        <v>-44.9877332123333</v>
+        <v>-22.5966879343404</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -939,13 +939,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>92.4357660447296</v>
+        <v>119.95459177089</v>
       </c>
       <c r="C18" t="n">
-        <v>10.7865409316497</v>
+        <v>36.6976548167016</v>
       </c>
       <c r="D18" t="n">
-        <v>-13.8728326937621</v>
+        <v>-7.37590532384596</v>
       </c>
       <c r="E18" t="n">
         <v>203.211528725078</v>
@@ -960,7 +960,7 @@
         <v>111</v>
       </c>
       <c r="I18" t="n">
-        <v>-18.5642339552704</v>
+        <v>8.95459177089002</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,10 +971,10 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>99.9257947284551</v>
+        <v>123.592305383163</v>
       </c>
       <c r="C19" t="n">
-        <v>17.5581091669918</v>
+        <v>35.1860734520901</v>
       </c>
       <c r="D19" t="n">
         <v>-11.6133587917035</v>
@@ -992,7 +992,7 @@
         <v>112</v>
       </c>
       <c r="I19" t="n">
-        <v>-12.0742052715449</v>
+        <v>11.5923053831631</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,10 +1003,10 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>112.303496741913</v>
+        <v>134.766738380899</v>
       </c>
       <c r="C20" t="n">
-        <v>30.7245525698213</v>
+        <v>35.549560546484</v>
       </c>
       <c r="D20" t="n">
         <v>-16.9728407600479</v>
@@ -1024,10 +1024,10 @@
         <v>101</v>
       </c>
       <c r="I20" t="n">
-        <v>11.3034967419132</v>
+        <v>33.7667383808992</v>
       </c>
       <c r="J20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>125.631683169742</v>
+        <v>142.683799818881</v>
       </c>
       <c r="C21" t="n">
         <v>34.69672211105</v>
@@ -1056,10 +1056,10 @@
         <v>143</v>
       </c>
       <c r="I21" t="n">
-        <v>-17.3683168302578</v>
+        <v>-0.316200181118688</v>
       </c>
       <c r="J21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>123.523001641624</v>
+        <v>138.055317448995</v>
       </c>
       <c r="C22" t="n">
         <v>30.762328502611</v>
@@ -1088,10 +1088,10 @@
         <v>211</v>
       </c>
       <c r="I22" t="n">
-        <v>-87.4769983583762</v>
+        <v>-72.9446825510049</v>
       </c>
       <c r="J22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>154.262964899372</v>
+        <v>168.610346711442</v>
       </c>
       <c r="C23" t="n">
         <v>34.1812773471289</v>
@@ -1120,10 +1120,10 @@
         <v>190</v>
       </c>
       <c r="I23" t="n">
-        <v>-35.7370351006276</v>
+        <v>-21.389653288558</v>
       </c>
       <c r="J23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -1131,10 +1131,10 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>116.82533284229</v>
+        <v>117.68866518383</v>
       </c>
       <c r="C24" t="n">
-        <v>19.4340931521745</v>
+        <v>21.518491338309</v>
       </c>
       <c r="D24" t="n">
         <v>-29.3909234896678</v>
@@ -1152,10 +1152,10 @@
         <v>155</v>
       </c>
       <c r="I24" t="n">
-        <v>-38.17466715771</v>
+        <v>-37.3113348161698</v>
       </c>
       <c r="J24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>60.4506855447583</v>
+        <v>68.6595453009455</v>
       </c>
       <c r="C25" t="n">
-        <v>-40.2450570052373</v>
+        <v>11.2027408568529</v>
       </c>
       <c r="D25" t="n">
-        <v>-64.9772348346474</v>
+        <v>-19.2130541362273</v>
       </c>
       <c r="E25" t="n">
-        <v>140.769840612736</v>
+        <v>126.116349745038</v>
       </c>
       <c r="F25" t="n">
-        <v>159.395577284966</v>
+        <v>156.532144738118</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,10 +1184,10 @@
         <v>91</v>
       </c>
       <c r="I25" t="n">
-        <v>-30.5493144552417</v>
+        <v>-22.3404546990545</v>
       </c>
       <c r="J25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>45.2305070238074</v>
+        <v>61.8243388737574</v>
       </c>
       <c r="C26" t="n">
-        <v>-56.7228394612582</v>
+        <v>8.87366763205515</v>
       </c>
       <c r="D26" t="n">
-        <v>-81.7412692539697</v>
+        <v>-19.1567245349981</v>
       </c>
       <c r="E26" t="n">
-        <v>119.989829561721</v>
+        <v>114.77501011546</v>
       </c>
       <c r="F26" t="n">
-        <v>147.653208328569</v>
+        <v>142.805402282513</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,10 +1216,10 @@
         <v>63</v>
       </c>
       <c r="I26" t="n">
-        <v>-17.7694929761926</v>
+        <v>-1.17566112624262</v>
       </c>
       <c r="J26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>36.8935064398186</v>
+        <v>57.5138200092924</v>
       </c>
       <c r="C27" t="n">
-        <v>-69.4290126804021</v>
+        <v>7.14353105350674</v>
       </c>
       <c r="D27" t="n">
-        <v>-94.5131302998012</v>
+        <v>-19.5208892435205</v>
       </c>
       <c r="E27" t="n">
-        <v>108.139388653743</v>
+        <v>107.884108965078</v>
       </c>
       <c r="F27" t="n">
-        <v>140.86311398846</v>
+        <v>134.548529262105</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>38</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.10649356018144</v>
+        <v>19.5138200092924</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,13 +1259,13 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>47.0075368006466</v>
+        <v>69.7529257485024</v>
       </c>
       <c r="C28" t="n">
-        <v>-55.8222348330926</v>
+        <v>7.32645460869172</v>
       </c>
       <c r="D28" t="n">
-        <v>-80.9724253461325</v>
+        <v>-25.7201230195066</v>
       </c>
       <c r="E28" t="n">
         <v>132.179396888313</v>
@@ -1280,10 +1280,10 @@
         <v>36</v>
       </c>
       <c r="I28" t="n">
-        <v>11.0075368006466</v>
+        <v>33.7529257485024</v>
       </c>
       <c r="J28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1291,13 +1291,13 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>57.4725833105855</v>
+        <v>82.4075473637499</v>
       </c>
       <c r="C29" t="n">
-        <v>-45.0299212567014</v>
+        <v>7.08735535374839</v>
       </c>
       <c r="D29" t="n">
-        <v>-70.217747992831</v>
+        <v>-32.7847458043449</v>
       </c>
       <c r="E29" t="n">
         <v>157.727739373751</v>
@@ -1312,10 +1312,10 @@
         <v>89</v>
       </c>
       <c r="I29" t="n">
-        <v>-31.5274166894145</v>
+        <v>-6.59245263625013</v>
       </c>
       <c r="J29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -1323,10 +1323,10 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>88.9403253155056</v>
+        <v>119.960757098966</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.06744108934415</v>
+        <v>8.04952311848669</v>
       </c>
       <c r="D30" t="n">
         <v>-51.1927055976087</v>
@@ -1344,10 +1344,10 @@
         <v>144</v>
       </c>
       <c r="I30" t="n">
-        <v>-55.0596746844944</v>
+        <v>-24.0392429010338</v>
       </c>
       <c r="J30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -1355,10 +1355,10 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>95.5749373863803</v>
+        <v>123.598657679471</v>
       </c>
       <c r="C31" t="n">
-        <v>4.9311144284175</v>
+        <v>5.9717800479622</v>
       </c>
       <c r="D31" t="n">
         <v>-56.2961276495034</v>
@@ -1376,10 +1376,10 @@
         <v>124</v>
       </c>
       <c r="I31" t="n">
-        <v>-28.4250626136197</v>
+        <v>-0.401342320529338</v>
       </c>
       <c r="J31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>107.928170660754</v>
+        <v>134.773665011582</v>
       </c>
       <c r="C32" t="n">
         <v>3.99430499015918</v>
@@ -1408,10 +1408,10 @@
         <v>179</v>
       </c>
       <c r="I32" t="n">
-        <v>-71.0718293392463</v>
+        <v>-44.2263349884182</v>
       </c>
       <c r="J32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>120.971262728985</v>
+        <v>142.691133364218</v>
       </c>
       <c r="C33" t="n">
         <v>1.5775094548242</v>
@@ -1440,10 +1440,10 @@
         <v>205</v>
       </c>
       <c r="I33" t="n">
-        <v>-84.0287372710151</v>
+        <v>-62.3088666357824</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>119.045815809406</v>
+        <v>138.062413103377</v>
       </c>
       <c r="C34" t="n">
         <v>-1.02693141346549</v>
@@ -1472,10 +1472,10 @@
         <v>174</v>
       </c>
       <c r="I34" t="n">
-        <v>-54.9541841905937</v>
+        <v>-35.9375868966229</v>
       </c>
       <c r="J34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>150.47007147209</v>
+        <v>168.619012808247</v>
       </c>
       <c r="C35" t="n">
         <v>-4.35912194125433</v>
@@ -1504,10 +1504,10 @@
         <v>118</v>
       </c>
       <c r="I35" t="n">
-        <v>32.4700714720899</v>
+        <v>50.6190128082472</v>
       </c>
       <c r="J35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>113.744710653849</v>
+        <v>117.694714049663</v>
       </c>
       <c r="C36" t="n">
         <v>-5.2013434921009</v>
@@ -1536,7 +1536,7 @@
         <v>116</v>
       </c>
       <c r="I36" t="n">
-        <v>-2.25528934615096</v>
+        <v>1.69471404966345</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>60.0886825403824</v>
+        <v>68.6630742081436</v>
       </c>
       <c r="C37" t="n">
-        <v>-54.9891352590769</v>
+        <v>-4.28939966987443</v>
       </c>
       <c r="D37" t="n">
-        <v>-80.2178910748292</v>
+        <v>-42.9081065607337</v>
       </c>
       <c r="E37" t="n">
-        <v>152.310576606983</v>
+        <v>141.615548086162</v>
       </c>
       <c r="F37" t="n">
-        <v>180.352367233825</v>
+        <v>180.234254977021</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,10 +1568,10 @@
         <v>36</v>
       </c>
       <c r="I37" t="n">
-        <v>24.0886825403824</v>
+        <v>32.6630742081436</v>
       </c>
       <c r="J37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>42.9507151863558</v>
+        <v>61.8275164706015</v>
       </c>
       <c r="C38" t="n">
-        <v>-71.3490831952095</v>
+        <v>-4.99684134798026</v>
       </c>
       <c r="D38" t="n">
-        <v>-96.8455360986742</v>
+        <v>-40.3715195539693</v>
       </c>
       <c r="E38" t="n">
-        <v>131.798180329095</v>
+        <v>128.651874289183</v>
       </c>
       <c r="F38" t="n">
-        <v>168.027059654186</v>
+        <v>164.026552495172</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,10 +1600,10 @@
         <v>33</v>
       </c>
       <c r="I38" t="n">
-        <v>9.95071518635581</v>
+        <v>28.8275164706015</v>
       </c>
       <c r="J38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>34.2997329494095</v>
+        <v>57.5167760576107</v>
       </c>
       <c r="C39" t="n">
-        <v>-83.8351272280546</v>
+        <v>-5.69333273263661</v>
       </c>
       <c r="D39" t="n">
-        <v>-109.386513917873</v>
+        <v>-39.1547430748216</v>
       </c>
       <c r="E39" t="n">
-        <v>121.569170229472</v>
+        <v>120.726884847858</v>
       </c>
       <c r="F39" t="n">
-        <v>161.402192490139</v>
+        <v>154.188295190043</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>50</v>
       </c>
       <c r="I39" t="n">
-        <v>-15.7002670505905</v>
+        <v>7.5167760576107</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,13 +1643,13 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>44.1165773122795</v>
+        <v>69.7565108523752</v>
       </c>
       <c r="C40" t="n">
-        <v>-69.9696650556829</v>
+        <v>-8.16893751255417</v>
       </c>
       <c r="D40" t="n">
-        <v>-95.5760291448017</v>
+        <v>-49.420178077417</v>
       </c>
       <c r="E40" t="n">
         <v>147.681959217304</v>
@@ -1664,10 +1664,10 @@
         <v>77</v>
       </c>
       <c r="I40" t="n">
-        <v>-32.8834226877205</v>
+        <v>-7.24348914762484</v>
       </c>
       <c r="J40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
